--- a/grad-pro/実験/分析結果.xlsx
+++ b/grad-pro/実験/分析結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuri/Desktop/wellcomp/grad-pro/実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A54D1A-E548-C449-A568-808FA2AB6DB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D24EF-D5DF-7846-BACC-6CAC05FE582D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1120" windowWidth="24100" windowHeight="16240" activeTab="4" xr2:uid="{6A46D9DA-C5A8-8242-A820-BE65108E5CDC}"/>
+    <workbookView xWindow="1780" yWindow="1440" windowWidth="24100" windowHeight="16240" activeTab="2" xr2:uid="{6A46D9DA-C5A8-8242-A820-BE65108E5CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="off" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -323,78 +323,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回数</t>
-  </si>
-  <si>
-    <t>合算</t>
-  </si>
-  <si>
-    <t>平均</t>
-  </si>
-  <si>
-    <t>見積もり傾向</t>
-  </si>
-  <si>
-    <t>合計</t>
-  </si>
-  <si>
-    <t>予測-on1</t>
-  </si>
-  <si>
-    <t>実態-on1</t>
-  </si>
-  <si>
-    <t>差(値)</t>
-  </si>
-  <si>
     <t>ずれ幅</t>
-  </si>
-  <si>
-    <t>差(%)</t>
-  </si>
-  <si>
-    <t>予測-off1</t>
-  </si>
-  <si>
-    <t>実態-off1</t>
-  </si>
-  <si>
-    <t>差</t>
-  </si>
-  <si>
-    <t>予測-on2</t>
-  </si>
-  <si>
-    <t>実態-on2</t>
-  </si>
-  <si>
-    <t>予測-off2</t>
-  </si>
-  <si>
-    <t>実態-off2</t>
-  </si>
-  <si>
-    <t>予測-on3</t>
-  </si>
-  <si>
-    <t>実態-on3</t>
-  </si>
-  <si>
-    <t>予測-off3</t>
-  </si>
-  <si>
-    <t>実態-off3</t>
-  </si>
-  <si>
-    <t>洗顔・整髪</t>
-    <rPh sb="0" eb="2">
-      <t>センガｎ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バッファ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ずれ幅平均(絶対値)</t>
@@ -505,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="132">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1376,19 +1305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1543,187 +1459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1736,416 +1471,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF757171"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF757171"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF757171"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF757171"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF757171"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF757171"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2155,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2681,49 +2006,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
@@ -2741,7 +2063,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2750,13 +2072,13 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2771,237 +2093,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3017,7 +2108,7 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14985,8 +14076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF88ABA2-8D0E-A443-ABFF-09511E6243BE}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15167,7 +14258,7 @@
         <v>854</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H4" s="57">
         <f t="array" ref="H4">AVERAGE(ABS(B5:E5))</f>
@@ -15201,7 +14292,7 @@
         <v>354</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="R4" s="57">
         <f t="array" ref="R4">AVERAGE(ABS(L5:O5))</f>
@@ -15235,7 +14326,7 @@
       <c r="G5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="284">
+      <c r="H5" s="206">
         <f>AVERAGE(B5:E5)</f>
         <v>0.97456960970937112</v>
       </c>
@@ -15269,7 +14360,7 @@
       <c r="Q5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="284">
+      <c r="R5" s="206">
         <f>AVERAGE(L5:O5)</f>
         <v>0.24009625107778487</v>
       </c>
@@ -15295,7 +14386,7 @@
         <v>1410</v>
       </c>
       <c r="G6" s="58"/>
-      <c r="H6" s="283"/>
+      <c r="H6" s="205"/>
       <c r="I6" s="51">
         <v>1410</v>
       </c>
@@ -15394,7 +14485,7 @@
         <v>517</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H8" s="57">
         <f t="array" ref="H8">AVERAGE(ABS(B9:E9))</f>
@@ -15428,7 +14519,7 @@
         <v>400</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="R8" s="57">
         <f t="array" ref="R8">AVERAGE(ABS(L9:O9))</f>
@@ -15462,7 +14553,7 @@
       <c r="G9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="284">
+      <c r="H9" s="206">
         <f>AVERAGE(B9:E9)</f>
         <v>0.34054836366743568</v>
       </c>
@@ -15496,7 +14587,7 @@
       <c r="Q9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="284">
+      <c r="R9" s="206">
         <f>AVERAGE(L9:O9)</f>
         <v>0.57028645444593717</v>
       </c>
@@ -15612,7 +14703,7 @@
         <v>445</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H12" s="57">
         <f t="array" ref="H12">AVERAGE(ABS(B13:E13))</f>
@@ -15677,7 +14768,7 @@
       <c r="G13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="284">
+      <c r="H13" s="206">
         <f>AVERAGE(B13:E13)</f>
         <v>0.47495241839798752</v>
       </c>
@@ -15834,7 +14925,7 @@
         <v>432</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H16" s="57">
         <f t="array" ref="H16">AVERAGE(ABS(B17:E17))</f>
@@ -15867,8 +14958,8 @@
         <f t="shared" ref="P16" si="29">P14-P15</f>
         <v>529</v>
       </c>
-      <c r="Q16" s="214" t="s">
-        <v>70</v>
+      <c r="Q16" s="204" t="s">
+        <v>48</v>
       </c>
       <c r="R16" s="57">
         <f t="array" ref="R16">AVERAGE(ABS(L17:O17))</f>
@@ -15876,37 +14967,37 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="21" thickBot="1">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="183" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="52">
         <f>(B14-B15)/B15</f>
         <v>-0.6428571428571429</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="184">
         <f>(C14-C15)/C14</f>
         <v>0.43888888888888888</v>
       </c>
-      <c r="D17" s="185">
+      <c r="D17" s="184">
         <f t="shared" ref="D17:F17" si="30">(D14-D15)/D14</f>
         <v>0.29888888888888887</v>
       </c>
-      <c r="E17" s="185">
+      <c r="E17" s="184">
         <f t="shared" si="30"/>
         <v>0.46</v>
       </c>
-      <c r="F17" s="185">
+      <c r="F17" s="184">
         <f t="shared" si="30"/>
         <v>0.30638297872340425</v>
       </c>
       <c r="G17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="284">
+      <c r="H17" s="206">
         <f>AVERAGE(B17:E17)</f>
         <v>0.1387301587301587</v>
       </c>
-      <c r="I17" s="186">
+      <c r="I17" s="185">
         <f>(I14-I15)/I15</f>
         <v>0.29002744739249769</v>
       </c>
@@ -15933,10 +15024,10 @@
         <f t="shared" si="31"/>
         <v>0.60045402951191829</v>
       </c>
-      <c r="Q17" s="214" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="284">
+      <c r="Q17" s="204" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="206">
         <f>AVERAGE(L17:O17)</f>
         <v>0.65967390473277776</v>
       </c>
@@ -16049,7 +15140,7 @@
         <v>409</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H20" s="57">
         <f t="array" ref="H20">AVERAGE(ABS(B21:E21))</f>
@@ -16114,7 +15205,7 @@
       <c r="G21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="284">
+      <c r="H21" s="206">
         <f>AVERAGE(B21:E21)</f>
         <v>0.53670723954602439</v>
       </c>
@@ -16415,7 +15506,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16586,7 +15677,7 @@
         <v>-43</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G4" s="57">
         <f t="array" ref="G4">AVERAGE(ABS(B5:D5))</f>
@@ -16616,7 +15707,7 @@
         <v>-27</v>
       </c>
       <c r="O4" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P4" s="57">
         <f t="array" ref="P4">AVERAGE(ABS(K5:M5))</f>
@@ -16646,7 +15737,7 @@
       <c r="F5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="284">
+      <c r="G5" s="206">
         <f>AVERAGE(B5:D5)</f>
         <v>0.10704763597582652</v>
       </c>
@@ -16676,7 +15767,7 @@
       <c r="O5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="284">
+      <c r="P5" s="206">
         <f>AVERAGE(K5:M5)</f>
         <v>0.14550600273950529</v>
       </c>
@@ -16790,7 +15881,7 @@
         <v>-69</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G8" s="57">
         <f t="array" ref="G8">AVERAGE(ABS(B9:D9))</f>
@@ -16820,7 +15911,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P8" s="57">
         <f t="array" ref="P8">AVERAGE(ABS(K9:M9))</f>
@@ -16850,7 +15941,7 @@
       <c r="F9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="285">
+      <c r="G9" s="207">
         <f>AVERAGE(B9:D9)</f>
         <v>-0.10607938924960046</v>
       </c>
@@ -16880,7 +15971,7 @@
       <c r="O9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="284">
+      <c r="P9" s="206">
         <f>AVERAGE(K9:M9)</f>
         <v>0.16187080892963246</v>
       </c>
@@ -16976,7 +16067,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G12" s="57">
         <f t="array" ref="G12">AVERAGE(ABS(B13:D13))</f>
@@ -17033,7 +16124,7 @@
       <c r="F13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="284">
+      <c r="G13" s="206">
         <f>AVERAGE(B13:D13)</f>
         <v>0.20959561171711605</v>
       </c>
@@ -17181,7 +16272,7 @@
         <v>-10</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G16" s="57">
         <f t="array" ref="G16">AVERAGE(ABS(B17:D17))</f>
@@ -17211,7 +16302,7 @@
         <v>38</v>
       </c>
       <c r="O16" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P16" s="57">
         <f t="array" ref="P16">AVERAGE(ABS(K17:M17))</f>
@@ -17219,14 +16310,14 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="21" thickBot="1">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="186" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="52">
         <f>(B14-B15)/B15</f>
         <v>-0.12408759124087591</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="184">
         <f>(C14-C15)/C15</f>
         <v>0.14285714285714285</v>
       </c>
@@ -17241,7 +16332,7 @@
       <c r="F17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="285">
+      <c r="G17" s="207">
         <f>AVERAGE(B17:D17)</f>
         <v>-1.4576816127911021E-2</v>
       </c>
@@ -17271,7 +16362,7 @@
       <c r="O17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="284">
+      <c r="P17" s="206">
         <f>AVERAGE(K17:M17)</f>
         <v>0.28024980483996881</v>
       </c>
@@ -17289,11 +16380,11 @@
       <c r="D18" s="66">
         <v>120</v>
       </c>
-      <c r="E18" s="180">
+      <c r="E18" s="179">
         <f>SUM(B18:D18)</f>
         <v>360</v>
       </c>
-      <c r="F18" s="178">
+      <c r="F18" s="177">
         <f>AVERAGE(B18:D18)</f>
         <v>120</v>
       </c>
@@ -17329,7 +16420,7 @@
         <v>427</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G19" s="60"/>
       <c r="H19" s="34">
@@ -17424,7 +16515,7 @@
         <f>AVERAGE(B21:D21)</f>
         <v>-5.6556855255828743E-2</v>
       </c>
-      <c r="G21" s="285">
+      <c r="G21" s="207">
         <f>AVERAGE(B21:D21)</f>
         <v>-5.6556855255828743E-2</v>
       </c>
@@ -17527,7 +16618,7 @@
         <v>-188</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G24" s="57">
         <f t="array" ref="G24">AVERAGE(ABS(B25:D25))</f>
@@ -17542,30 +16633,30 @@
       <c r="A25" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="197">
+      <c r="B25" s="196">
         <f>(B22-B23)/B23</f>
         <v>-0.29411764705882354</v>
       </c>
-      <c r="C25" s="197">
+      <c r="C25" s="196">
         <f t="shared" ref="C25:E25" si="8">(C22-C23)/C23</f>
         <v>-0.16083916083916083</v>
       </c>
-      <c r="D25" s="197">
+      <c r="D25" s="196">
         <f t="shared" si="8"/>
         <v>-0.48936170212765956</v>
       </c>
-      <c r="E25" s="197">
+      <c r="E25" s="196">
         <f t="shared" si="8"/>
         <v>-0.34306569343065696</v>
       </c>
       <c r="F25" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="286">
+      <c r="G25" s="208">
         <f>AVERAGE(B25:D25)</f>
         <v>-0.31477283667521466</v>
       </c>
-      <c r="H25" s="287">
+      <c r="H25" s="209">
         <f>(H22-H23)/H23</f>
         <v>-0.39899833055091821</v>
       </c>
@@ -17580,14 +16671,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99075E33-FC1F-8E45-BE68-F52CBAC9D14E}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1">
@@ -17693,7 +16785,7 @@
       <c r="O2" s="65">
         <v>180</v>
       </c>
-      <c r="P2" s="190"/>
+      <c r="P2" s="189"/>
       <c r="Q2" s="65">
         <v>480</v>
       </c>
@@ -17738,7 +16830,7 @@
       <c r="J3" s="59">
         <v>2536</v>
       </c>
-      <c r="L3" s="183" t="s">
+      <c r="L3" s="182" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="135">
@@ -17755,7 +16847,10 @@
         <v>540</v>
       </c>
       <c r="R3" s="67"/>
-      <c r="S3" s="175"/>
+      <c r="S3" s="54">
+        <f>AVERAGE(M3:Q3)</f>
+        <v>423.25</v>
+      </c>
       <c r="T3" s="164"/>
     </row>
     <row r="4" spans="1:21" ht="22" thickTop="1" thickBot="1">
@@ -17787,7 +16882,7 @@
         <v>432</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I4" s="57">
         <f t="array" ref="I4">AVERAGE(ABS(B5:F5))</f>
@@ -17812,7 +16907,7 @@
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="P4" s="204">
+      <c r="P4" s="203">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17824,10 +16919,13 @@
         <f t="shared" ref="R4" si="3">R3-R2</f>
         <v>-2040</v>
       </c>
-      <c r="S4" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="130"/>
+      <c r="S4" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="57">
+        <f t="array" ref="T4">AVERAGE(ABS(M5:Q5))</f>
+        <v>0.1712234880733671</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="21" thickBot="1">
       <c r="A5" s="70" t="s">
@@ -17860,7 +16958,7 @@
       <c r="H5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="284">
+      <c r="I5" s="206">
         <f>AVERAGE(B5:F5)</f>
         <v>0.41946801142861884</v>
       </c>
@@ -17883,10 +16981,7 @@
         <f t="shared" si="5"/>
         <v>-4.6511627906976744E-2</v>
       </c>
-      <c r="P5" s="168" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P5" s="168"/>
       <c r="Q5" s="168">
         <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
@@ -17895,11 +16990,13 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="169">
-        <f>AVERAGE(M5:M5)</f>
-        <v>0.39791666666666664</v>
-      </c>
-      <c r="T5" s="165"/>
+      <c r="S5" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="206">
+        <f>AVERAGE(M5:Q5)</f>
+        <v>4.0484528797180015E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="21" thickBot="1">
       <c r="A6" s="137" t="s">
@@ -17980,7 +17077,7 @@
         <f>SUM(B7,D7:F7)</f>
         <v>1757</v>
       </c>
-      <c r="H7" s="194">
+      <c r="H7" s="193">
         <f>AVERAGE(B7,D7:F7)</f>
         <v>439.25</v>
       </c>
@@ -17988,7 +17085,7 @@
       <c r="J7" s="33">
         <v>2019</v>
       </c>
-      <c r="L7" s="182" t="s">
+      <c r="L7" s="181" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="135"/>
@@ -18030,7 +17127,7 @@
         <v>-137</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I8" s="57">
         <f t="array" ref="I8">AVERAGE(ABS(B9:F9))</f>
@@ -18067,10 +17164,13 @@
         <f t="shared" si="6"/>
         <v>-2520</v>
       </c>
-      <c r="S8" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="130"/>
+      <c r="S8" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="57">
+        <f t="array" ref="T8">AVERAGE(ABS(M9:Q9))</f>
+        <v>0.35639290287177611</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="21" thickBot="1">
       <c r="A9" s="70" t="s">
@@ -18100,7 +17200,7 @@
       <c r="H9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="284">
+      <c r="I9" s="206">
         <f>AVERAGE(B9:F9)</f>
         <v>0.10504525295007514</v>
       </c>
@@ -18111,60 +17211,50 @@
       <c r="L9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="168" t="e">
-        <f t="shared" ref="M9:Q9" si="9">(M6-M7)/M7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="168" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
       <c r="O9" s="168">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M9:Q9" si="9">(O6-O7)/O7</f>
         <v>1.5352112676056338</v>
       </c>
-      <c r="P9" s="168" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="P9" s="168"/>
       <c r="Q9" s="168">
         <f t="shared" si="9"/>
         <v>0.24675324675324675</v>
       </c>
-      <c r="R9" s="157" t="e">
-        <f t="shared" ref="R9" si="10">(R6-R7)/R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="169" t="e">
-        <f>AVERAGE(M9:M9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="165"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="206">
+        <f>AVERAGE(M9:Q9)</f>
+        <v>0.89098225717944024</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="21" thickBot="1">
       <c r="A10" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="181">
+      <c r="B10" s="180">
         <v>480</v>
       </c>
-      <c r="C10" s="181">
+      <c r="C10" s="180">
         <v>900</v>
       </c>
-      <c r="D10" s="181">
+      <c r="D10" s="180">
         <v>180</v>
       </c>
-      <c r="E10" s="181">
+      <c r="E10" s="180">
         <v>480</v>
       </c>
-      <c r="F10" s="181">
+      <c r="F10" s="180">
         <v>480</v>
       </c>
-      <c r="G10" s="181">
+      <c r="G10" s="180">
         <f>SUM(B10:F10)</f>
         <v>2520</v>
       </c>
-      <c r="H10" s="178">
+      <c r="H10" s="177">
         <f>AVERAGE(B10:F10)</f>
         <v>504</v>
       </c>
@@ -18204,26 +17294,26 @@
       <c r="A11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="179">
+      <c r="B11" s="178">
         <v>461</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11" s="178">
         <v>738</v>
       </c>
-      <c r="D11" s="179">
+      <c r="D11" s="178">
         <v>149</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E11" s="178">
         <v>662</v>
       </c>
-      <c r="F11" s="179">
+      <c r="F11" s="178">
         <v>420</v>
       </c>
-      <c r="G11" s="181">
+      <c r="G11" s="180">
         <f>SUM(B11:F11)</f>
         <v>2430</v>
       </c>
-      <c r="H11" s="178">
+      <c r="H11" s="177">
         <f>AVERAGE(B11:F11)</f>
         <v>486</v>
       </c>
@@ -18231,7 +17321,7 @@
       <c r="J11" s="34">
         <v>2561</v>
       </c>
-      <c r="L11" s="183" t="s">
+      <c r="L11" s="182" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="135"/>
@@ -18249,7 +17339,7 @@
       <c r="U11" s="34"/>
     </row>
     <row r="12" spans="1:21" ht="22" thickTop="1" thickBot="1">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="194" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="38">
@@ -18257,11 +17347,11 @@
         <v>19</v>
       </c>
       <c r="C12" s="38">
-        <f t="shared" ref="C12:G12" si="11">C10-C11</f>
+        <f t="shared" ref="C12:G12" si="10">C10-C11</f>
         <v>162</v>
       </c>
       <c r="D12" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="E12" s="37">
@@ -18269,15 +17359,15 @@
         <v>-182</v>
       </c>
       <c r="F12" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G12" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I12" s="57">
         <f t="array" ref="I12">AVERAGE(ABS(B13:F13))</f>
@@ -18292,26 +17382,26 @@
       </c>
       <c r="M12" s="151"/>
       <c r="N12" s="151">
-        <f t="shared" ref="N12:Q12" si="12">N11-N10</f>
+        <f t="shared" ref="N12:Q12" si="11">N11-N10</f>
         <v>-341</v>
       </c>
       <c r="O12" s="151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-120</v>
       </c>
       <c r="P12" s="151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-480</v>
       </c>
       <c r="Q12" s="151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-480</v>
       </c>
-      <c r="R12" s="176">
-        <f t="shared" ref="R12" si="13">R11-R10</f>
+      <c r="R12" s="175">
+        <f t="shared" ref="R12" si="12">R11-R10</f>
         <v>-2040</v>
       </c>
-      <c r="S12" s="177" t="s">
+      <c r="S12" s="176" t="s">
         <v>30</v>
       </c>
       <c r="T12" s="130"/>
@@ -18320,34 +17410,34 @@
       <c r="A13" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="196">
+      <c r="B13" s="195">
         <f>(B10-B11)/B11</f>
         <v>4.1214750542299353E-2</v>
       </c>
-      <c r="C13" s="196">
-        <f t="shared" ref="C13:D13" si="14">(C10-C11)/C11</f>
+      <c r="C13" s="195">
+        <f t="shared" ref="C13:D13" si="13">(C10-C11)/C11</f>
         <v>0.21951219512195122</v>
       </c>
-      <c r="D13" s="196">
-        <f t="shared" si="14"/>
+      <c r="D13" s="195">
+        <f t="shared" si="13"/>
         <v>0.20805369127516779</v>
       </c>
       <c r="E13" s="52">
         <f>(E10-E11)/E11</f>
         <v>-0.27492447129909364</v>
       </c>
-      <c r="F13" s="196">
+      <c r="F13" s="195">
         <f>(F10-F11)/F11</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G13" s="198">
+      <c r="G13" s="197">
         <f>(G10-G11)/G11</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="284">
+      <c r="I13" s="206">
         <f>AVERAGE(B13:F13)</f>
         <v>6.7342661699493517E-2</v>
       </c>
@@ -18360,23 +17450,23 @@
       </c>
       <c r="M13" s="168"/>
       <c r="N13" s="168">
-        <f t="shared" ref="N13:R13" si="15">(N10-N11)/N10</f>
+        <f t="shared" ref="N13:R13" si="14">(N10-N11)/N10</f>
         <v>0.37888888888888889</v>
       </c>
       <c r="O13" s="168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P13" s="168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q13" s="168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R13" s="157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S13" s="169" t="e">
@@ -18495,7 +17585,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="163">
-        <f t="shared" ref="B16:F16" si="16">C15-C14</f>
+        <f t="shared" ref="B16:F16" si="15">C15-C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="38">
@@ -18515,7 +17605,7 @@
         <v>-476</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I16" s="57">
         <f t="array" ref="I16">AVERAGE(ABS(B17:F17))</f>
@@ -18529,27 +17619,27 @@
         <v>23</v>
       </c>
       <c r="M16" s="167">
-        <f t="shared" ref="M16:R16" si="17">M15-M14</f>
+        <f t="shared" ref="M16:R16" si="16">M15-M14</f>
         <v>0</v>
       </c>
       <c r="N16" s="167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-900</v>
       </c>
       <c r="O16" s="167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-180</v>
       </c>
       <c r="P16" s="167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-480</v>
       </c>
       <c r="Q16" s="167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-480</v>
       </c>
       <c r="R16" s="161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-2040</v>
       </c>
       <c r="S16" s="70" t="s">
@@ -18561,20 +17651,20 @@
       <c r="A17" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="196">
+      <c r="B17" s="195">
         <f>(B14-B15)/B15</f>
         <v>0.20300751879699247</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196">
-        <f t="shared" ref="C17:D17" si="18">(D14-D15)/D15</f>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195">
+        <f t="shared" ref="C17:D17" si="17">(D14-D15)/D15</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="E17" s="52">
         <f>(E14-E15)/E15</f>
         <v>-0.63161933998465081</v>
       </c>
-      <c r="F17" s="196">
+      <c r="F17" s="195">
         <f>(F14-F15)/F15</f>
         <v>0.41176470588235292</v>
       </c>
@@ -18585,7 +17675,7 @@
       <c r="H17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="284">
+      <c r="I17" s="206">
         <f>AVERAGE(B17:F17)</f>
         <v>0.57912155450700697</v>
       </c>
@@ -18597,27 +17687,27 @@
         <v>28</v>
       </c>
       <c r="M17" s="168" t="e">
-        <f t="shared" ref="M17:Q17" si="19">(M15-M14)/M15</f>
+        <f t="shared" ref="M17:Q17" si="18">(M15-M14)/M15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="168" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="168" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="168" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="168" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="157" t="e">
-        <f t="shared" ref="R17" si="20">(R14-R15)/R15</f>
+        <f t="shared" ref="R17" si="19">(R14-R15)/R15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S17" s="169" t="e">
@@ -18693,7 +17783,7 @@
         <f>SUM(B19:F19)</f>
         <v>2693</v>
       </c>
-      <c r="H19" s="194">
+      <c r="H19" s="193">
         <f>AVERAGE(B19:F19)</f>
         <v>538.6</v>
       </c>
@@ -18722,7 +17812,7 @@
         <v>-9</v>
       </c>
       <c r="C20" s="38">
-        <f t="shared" ref="C20" si="21">C18-C19</f>
+        <f t="shared" ref="C20" si="20">C18-C19</f>
         <v>29</v>
       </c>
       <c r="D20" s="37">
@@ -18734,7 +17824,7 @@
         <v>-163</v>
       </c>
       <c r="F20" s="38">
-        <f t="shared" ref="F20" si="22">F18-F19</f>
+        <f t="shared" ref="F20" si="21">F18-F19</f>
         <v>-5</v>
       </c>
       <c r="G20" s="37">
@@ -18742,7 +17832,7 @@
         <v>-173</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I20" s="57">
         <f t="array" ref="I20">AVERAGE(ABS(B21:F21))</f>
@@ -18756,30 +17846,30 @@
         <v>23</v>
       </c>
       <c r="M20" s="151">
-        <f t="shared" ref="M20:Q20" si="23">M19-M18</f>
+        <f t="shared" ref="M20:Q20" si="22">M19-M18</f>
         <v>0</v>
       </c>
       <c r="N20" s="151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O20" s="151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P20" s="151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q20" s="151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R20" s="176">
-        <f t="shared" ref="R20" si="24">R19-R18</f>
+      <c r="R20" s="175">
+        <f t="shared" ref="R20" si="23">R19-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="177" t="s">
+      <c r="S20" s="176" t="s">
         <v>30</v>
       </c>
       <c r="T20" s="130"/>
@@ -18792,8 +17882,8 @@
         <f>(B18-B19)/B19</f>
         <v>-1.8404907975460124E-2</v>
       </c>
-      <c r="C21" s="196">
-        <f t="shared" ref="C21" si="25">(C18-C19)/C19</f>
+      <c r="C21" s="195">
+        <f t="shared" ref="C21" si="24">(C18-C19)/C19</f>
         <v>3.3295063145809413E-2</v>
       </c>
       <c r="D21" s="52">
@@ -18801,21 +17891,21 @@
         <v>-0.12195121951219512</v>
       </c>
       <c r="E21" s="52">
-        <f t="shared" ref="E21:G21" si="26">(E18-E19)/E19</f>
+        <f t="shared" ref="E21:G21" si="25">(E18-E19)/E19</f>
         <v>-0.25349922239502332</v>
       </c>
       <c r="F21" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-1.0309278350515464E-2</v>
       </c>
       <c r="G21" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-6.4240623839584107E-2</v>
       </c>
       <c r="H21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="285">
+      <c r="I21" s="207">
         <f>AVERAGE(B21:F21)</f>
         <v>-7.4173913017476917E-2</v>
       </c>
@@ -18827,27 +17917,27 @@
         <v>28</v>
       </c>
       <c r="M21" s="157" t="e">
-        <f t="shared" ref="M21:Q21" si="27">(M18-M19)/M18</f>
+        <f t="shared" ref="M21:Q21" si="26">(M18-M19)/M18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="157" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="157" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="157" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="157" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="157" t="e">
-        <f t="shared" ref="R21" si="28">(R18-R19)/R18</f>
+        <f t="shared" ref="R21" si="27">(R18-R19)/R18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="57" t="e">
@@ -18904,7 +17994,7 @@
         <f>SUM(B23:F23)</f>
         <v>1438</v>
       </c>
-      <c r="H23" s="194">
+      <c r="H23" s="193">
         <f>AVERAGE(B23:F23)</f>
         <v>479.33333333333331</v>
       </c>
@@ -18922,11 +18012,11 @@
         <v>99</v>
       </c>
       <c r="C24" s="71">
-        <f t="shared" ref="B24:F24" si="29">C23-C22</f>
+        <f t="shared" ref="B24:F24" si="28">C23-C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E24" s="37">
@@ -18942,7 +18032,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="37">
@@ -18954,34 +18044,34 @@
       <c r="A25" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="196">
+      <c r="B25" s="195">
         <f>(B22-B23)/B23</f>
         <v>0.25984251968503935</v>
       </c>
-      <c r="C25" s="199" t="e">
-        <f t="shared" ref="C25:E25" si="30">(C22-C23)/C23</f>
+      <c r="C25" s="198" t="e">
+        <f t="shared" ref="C25:E25" si="29">(C22-C23)/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="199" t="e">
-        <f t="shared" si="30"/>
+      <c r="D25" s="198" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="52">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-0.27492447129909364</v>
       </c>
-      <c r="F25" s="196">
+      <c r="F25" s="195">
         <f>(F22-F23)/F23</f>
         <v>0.21518987341772153</v>
       </c>
-      <c r="G25" s="202">
+      <c r="G25" s="201">
         <f>(G22-G23)/G23</f>
         <v>1.3908205841446453E-3</v>
       </c>
       <c r="H25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="201"/>
+      <c r="I25" s="200"/>
       <c r="J25" s="52">
         <f>(J22-J23)/J23</f>
         <v>-0.70588235294117652</v>
@@ -19039,7 +18129,7 @@
         <f>SUM(B27:E27)</f>
         <v>1706</v>
       </c>
-      <c r="H27" s="194">
+      <c r="H27" s="193">
         <f>AVERAGE(B27:F27)</f>
         <v>426.5</v>
       </c>
@@ -19073,7 +18163,7 @@
         <v>-238</v>
       </c>
       <c r="F28" s="151">
-        <f t="shared" ref="B28:G28" si="31">F27-F26</f>
+        <f t="shared" ref="B28:G28" si="30">F27-F26</f>
         <v>0</v>
       </c>
       <c r="G28" s="38">
@@ -19081,7 +18171,7 @@
         <v>334</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I28" s="56"/>
       <c r="J28" s="38">
@@ -19090,38 +18180,38 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="21" thickBot="1">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="196">
+      <c r="B29" s="195">
         <f>(B26-B27)/B27</f>
         <v>0.12149532710280374</v>
       </c>
-      <c r="C29" s="196">
-        <f t="shared" ref="C29:E29" si="32">(C26-C27)/C27</f>
+      <c r="C29" s="195">
+        <f t="shared" ref="C29:E29" si="31">(C26-C27)/C27</f>
         <v>1.0224719101123596</v>
       </c>
-      <c r="D29" s="196">
-        <f t="shared" si="32"/>
+      <c r="D29" s="195">
+        <f t="shared" si="31"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="E29" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-0.33147632311977715</v>
       </c>
-      <c r="F29" s="189" t="e">
-        <f t="shared" ref="F29" si="33">(F27-F26)/F27</f>
+      <c r="F29" s="188" t="e">
+        <f t="shared" ref="F29" si="32">(F27-F26)/F27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="196">
+      <c r="G29" s="195">
         <f>(G26-G27)/G27</f>
         <v>0.19577960140679954</v>
       </c>
       <c r="H29" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="200"/>
-      <c r="J29" s="196">
+      <c r="I29" s="199"/>
+      <c r="J29" s="195">
         <f>(J26-J27)/J27</f>
         <v>4.9382716049382713E-2</v>
       </c>
@@ -19196,7 +18286,7 @@
         <v>-2</v>
       </c>
       <c r="C32" s="71">
-        <f t="shared" ref="B32:F32" si="34">C31-C30</f>
+        <f t="shared" ref="B32:F32" si="33">C31-C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="38">
@@ -19216,7 +18306,7 @@
         <v>-952</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I32" s="56"/>
       <c r="J32" s="37">
@@ -19228,28 +18318,28 @@
       <c r="A33" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="203">
+      <c r="B33" s="202">
         <f>(B30-B31)/B31</f>
         <v>-4.1493775933609959E-3</v>
       </c>
       <c r="C33" s="157" t="e">
-        <f t="shared" ref="B33:G33" si="35">(C31-C30)/C31</f>
+        <f t="shared" ref="B33:G33" si="34">(C31-C30)/C31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="196">
-        <f t="shared" ref="D33:G33" si="36">(D30-D31)/D31</f>
+      <c r="D33" s="195">
+        <f t="shared" ref="D33:G33" si="35">(D30-D31)/D31</f>
         <v>6.5088757396449703E-2</v>
       </c>
       <c r="E33" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>-0.68524590163934429</v>
       </c>
-      <c r="F33" s="196">
-        <f t="shared" si="36"/>
+      <c r="F33" s="195">
+        <f t="shared" si="35"/>
         <v>0.21212121212121213</v>
       </c>
       <c r="G33" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>-0.37013996889580092</v>
       </c>
       <c r="H33" s="56" t="s">
@@ -19317,7 +18407,7 @@
         <f>SUM(B35:F35)</f>
         <v>2689</v>
       </c>
-      <c r="H35" s="194">
+      <c r="H35" s="193">
         <f>AVERAGE(B35:F35)</f>
         <v>537.79999999999995</v>
       </c>
@@ -19355,7 +18445,7 @@
         <v>-169</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="37">
@@ -19367,28 +18457,28 @@
       <c r="A37" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="196">
+      <c r="B37" s="195">
         <f>(B34-B35)/B35</f>
         <v>0.39534883720930231</v>
       </c>
       <c r="C37" s="52">
-        <f t="shared" ref="C37" si="37">(C34-C35)/C35</f>
+        <f t="shared" ref="C37" si="36">(C34-C35)/C35</f>
         <v>-0.13127413127413126</v>
       </c>
-      <c r="D37" s="196">
+      <c r="D37" s="195">
         <f>(D34-D35)/D35</f>
         <v>0.41732283464566927</v>
       </c>
       <c r="E37" s="52">
-        <f t="shared" ref="E37" si="38">(E34-E35)/E35</f>
+        <f t="shared" ref="E37" si="37">(E34-E35)/E35</f>
         <v>-0.46843853820598008</v>
       </c>
-      <c r="F37" s="196">
+      <c r="F37" s="195">
         <f>(F34-F35)/F35</f>
         <v>0.72043010752688175</v>
       </c>
       <c r="G37" s="52">
-        <f t="shared" ref="G37" si="39">(G34-G35)/G35</f>
+        <f t="shared" ref="G37" si="38">(G34-G35)/G35</f>
         <v>-6.284864261807363E-2</v>
       </c>
       <c r="H37" s="56" t="s">
@@ -19404,26 +18494,26 @@
       <c r="A38" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="190">
+      <c r="B38" s="189">
         <v>480</v>
       </c>
-      <c r="C38" s="190">
+      <c r="C38" s="189">
         <v>900</v>
       </c>
-      <c r="D38" s="190">
+      <c r="D38" s="189">
         <v>180</v>
       </c>
-      <c r="E38" s="190">
+      <c r="E38" s="189">
         <v>480</v>
       </c>
-      <c r="F38" s="190">
+      <c r="F38" s="189">
         <v>480</v>
       </c>
-      <c r="G38" s="191">
+      <c r="G38" s="190">
         <f>SUM(B38:F38)</f>
         <v>2520</v>
       </c>
-      <c r="H38" s="192">
+      <c r="H38" s="191">
         <f>AVERAGE(B38:F38)</f>
         <v>504</v>
       </c>
@@ -19440,7 +18530,7 @@
       <c r="E39" s="144"/>
       <c r="F39" s="144"/>
       <c r="G39" s="140"/>
-      <c r="H39" s="193"/>
+      <c r="H39" s="192"/>
       <c r="I39" s="145"/>
       <c r="J39" s="146"/>
     </row>
@@ -19449,27 +18539,27 @@
         <v>23</v>
       </c>
       <c r="B40" s="147">
-        <f t="shared" ref="B40:G40" si="40">B39-B38</f>
+        <f t="shared" ref="B40:G40" si="39">B39-B38</f>
         <v>-480</v>
       </c>
       <c r="C40" s="147">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-900</v>
       </c>
       <c r="D40" s="147">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-180</v>
       </c>
       <c r="E40" s="147">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-480</v>
       </c>
       <c r="F40" s="147">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-480</v>
       </c>
       <c r="G40" s="148">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-2520</v>
       </c>
       <c r="H40" s="149" t="s">
@@ -19486,27 +18576,27 @@
         <v>28</v>
       </c>
       <c r="B41" s="157" t="e">
-        <f t="shared" ref="B41:G41" si="41">(B39-B38)/B39</f>
+        <f t="shared" ref="B41:G41" si="40">(B39-B38)/B39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="157" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="157" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="157" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="157" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="157" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="57" t="e">
@@ -19567,7 +18657,7 @@
         <f>SUM(B43:F43)</f>
         <v>1738</v>
       </c>
-      <c r="H43" s="194">
+      <c r="H43" s="193">
         <f>AVERAGE(B43:F43)</f>
         <v>579.33333333333337</v>
       </c>
@@ -19585,11 +18675,11 @@
         <v>205</v>
       </c>
       <c r="C44" s="151">
-        <f t="shared" ref="B44:G44" si="42">C43-C42</f>
+        <f t="shared" ref="B44:G44" si="41">C43-C42</f>
         <v>0</v>
       </c>
       <c r="D44" s="151">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E44" s="37">
@@ -19605,7 +18695,7 @@
         <v>-298</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="37">
@@ -19617,28 +18707,28 @@
       <c r="A45" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="196">
+      <c r="B45" s="195">
         <f>(B42-B43)/B43</f>
         <v>0.74545454545454548</v>
       </c>
       <c r="C45" s="157" t="e">
-        <f t="shared" ref="C45:G45" si="43">(C43-C42)/C43</f>
+        <f t="shared" ref="C45:G45" si="42">(C43-C42)/C43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D45" s="157" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="52">
-        <f t="shared" ref="E45" si="44">(E42-E43)/E43</f>
+        <f t="shared" ref="E45" si="43">(E42-E43)/E43</f>
         <v>-0.58297132927888795</v>
       </c>
-      <c r="F45" s="196">
+      <c r="F45" s="195">
         <f>(F42-F43)/F43</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="G45" s="52">
-        <f t="shared" ref="G45" si="45">(G42-G43)/G43</f>
+        <f t="shared" ref="G45" si="44">(G42-G43)/G43</f>
         <v>-0.1714614499424626</v>
       </c>
       <c r="H45" s="56" t="s">
@@ -19654,26 +18744,26 @@
       <c r="A46" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="190">
+      <c r="B46" s="189">
         <v>480</v>
       </c>
-      <c r="C46" s="190">
+      <c r="C46" s="189">
         <v>900</v>
       </c>
-      <c r="D46" s="190">
+      <c r="D46" s="189">
         <v>180</v>
       </c>
-      <c r="E46" s="190">
+      <c r="E46" s="189">
         <v>480</v>
       </c>
-      <c r="F46" s="190">
+      <c r="F46" s="189">
         <v>480</v>
       </c>
-      <c r="G46" s="191">
+      <c r="G46" s="190">
         <f>SUM(B46:F46)</f>
         <v>2520</v>
       </c>
-      <c r="H46" s="192">
+      <c r="H46" s="191">
         <f>AVERAGE(B46:F46)</f>
         <v>504</v>
       </c>
@@ -19690,7 +18780,7 @@
       <c r="E47" s="144"/>
       <c r="F47" s="144"/>
       <c r="G47" s="140"/>
-      <c r="H47" s="193"/>
+      <c r="H47" s="192"/>
       <c r="I47" s="145"/>
       <c r="J47" s="146"/>
     </row>
@@ -19699,27 +18789,27 @@
         <v>23</v>
       </c>
       <c r="B48" s="147">
-        <f t="shared" ref="B48:G48" si="46">B47-B46</f>
+        <f t="shared" ref="B48:G48" si="45">B47-B46</f>
         <v>-480</v>
       </c>
       <c r="C48" s="147">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>-900</v>
       </c>
       <c r="D48" s="147">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>-180</v>
       </c>
       <c r="E48" s="147">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>-480</v>
       </c>
       <c r="F48" s="147">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>-480</v>
       </c>
       <c r="G48" s="148">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>-2520</v>
       </c>
       <c r="H48" s="149" t="s">
@@ -19736,27 +18826,27 @@
         <v>28</v>
       </c>
       <c r="B49" s="157" t="e">
-        <f t="shared" ref="B49:G49" si="47">(B47-B46)/B47</f>
+        <f t="shared" ref="B49:G49" si="46">(B47-B46)/B47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C49" s="157" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D49" s="157" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E49" s="157" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F49" s="157" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G49" s="157" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="57" t="e">
@@ -19821,7 +18911,7 @@
         <f>SUM(B51:F51)</f>
         <v>1871</v>
       </c>
-      <c r="H51" s="194">
+      <c r="H51" s="193">
         <f>AVERAGE(B51:F51)</f>
         <v>467.75</v>
       </c>
@@ -19839,7 +18929,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="151">
-        <f t="shared" ref="C52:E52" si="48">C51-C50</f>
+        <f t="shared" ref="C52:E52" si="47">C51-C50</f>
         <v>0</v>
       </c>
       <c r="D52" s="38">
@@ -19859,7 +18949,7 @@
         <v>-251</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I52" s="56"/>
       <c r="J52" s="37">
@@ -19871,27 +18961,27 @@
       <c r="A53" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="196">
+      <c r="B53" s="195">
         <f>(B50-B51)/B51</f>
         <v>6.4301552106430154E-2</v>
       </c>
       <c r="C53" s="157" t="e">
-        <f t="shared" ref="C53" si="49">(C51-C50)/C51</f>
+        <f t="shared" ref="C53" si="48">(C51-C50)/C51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="196">
+      <c r="D53" s="195">
         <f>(D50-D51)/D51</f>
         <v>0.1464968152866242</v>
       </c>
       <c r="E53" s="52">
-        <f t="shared" ref="E53" si="50">(E50-E51)/E51</f>
+        <f t="shared" ref="E53" si="49">(E50-E51)/E51</f>
         <v>-0.42514970059880242</v>
       </c>
-      <c r="F53" s="196">
+      <c r="F53" s="195">
         <f>(F50-F51)/F51</f>
         <v>0.12149532710280374</v>
       </c>
-      <c r="G53" s="196">
+      <c r="G53" s="195">
         <f>(G50-G51)/G51</f>
         <v>-0.13415285943345803</v>
       </c>
@@ -19912,820 +19002,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3BD414-2D29-9E48-B9AC-363F6A0BBC18}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" thickBot="1">
-      <c r="A1" s="279" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="280" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="280" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="280" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="280" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="280" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="280" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="281" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="282" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="210"/>
-      <c r="K1" s="205" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="206" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="206" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="207" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="208" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="209" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="210"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="211" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="219">
-        <v>240</v>
-      </c>
-      <c r="C2" s="219">
-        <v>240</v>
-      </c>
-      <c r="D2" s="219">
-        <v>300</v>
-      </c>
-      <c r="E2" s="220">
-        <f>SUM(B2:D2)</f>
-        <v>780</v>
-      </c>
-      <c r="F2" s="278">
-        <f>I2-SUM(B2:D2)</f>
-        <v>520</v>
-      </c>
-      <c r="G2" s="247">
-        <f>AVERAGE(B2:D2)</f>
-        <v>260</v>
-      </c>
-      <c r="H2" s="222"/>
-      <c r="I2" s="223">
-        <v>1300</v>
-      </c>
-      <c r="J2" s="224"/>
-      <c r="K2" s="225" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="210"/>
-    </row>
-    <row r="3" spans="1:18" ht="21" thickBot="1">
-      <c r="A3" s="212" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="226">
-        <v>124</v>
-      </c>
-      <c r="C3" s="226">
-        <v>253</v>
-      </c>
-      <c r="D3" s="226">
-        <v>288</v>
-      </c>
-      <c r="E3" s="220"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="228">
-        <v>712</v>
-      </c>
-      <c r="J3" s="224"/>
-      <c r="K3" s="229" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="210"/>
-    </row>
-    <row r="4" spans="1:18" ht="22" thickTop="1" thickBot="1">
-      <c r="A4" s="213" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="232">
-        <f t="shared" ref="B4:H4" si="0">B2-B3</f>
-        <v>116</v>
-      </c>
-      <c r="C4" s="232">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="D4" s="232">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E4" s="232">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
-      <c r="F4" s="232">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="G4" s="232">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232">
-        <f>I2-I3</f>
-        <v>588</v>
-      </c>
-      <c r="J4" s="224"/>
-      <c r="K4" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="232"/>
-      <c r="R4" s="210"/>
-    </row>
-    <row r="5" spans="1:18" ht="21" thickBot="1">
-      <c r="A5" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="53">
-        <f>(B2-B3)/B3</f>
-        <v>0.93548387096774188</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="53">
-        <f>(D2-D3)/D3</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E5" s="269"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="233" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="234"/>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234"/>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="236"/>
-      <c r="R5" s="210"/>
-    </row>
-    <row r="6" spans="1:18" ht="21" thickBot="1">
-      <c r="A6" s="211" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="219">
-        <v>240</v>
-      </c>
-      <c r="C6" s="219">
-        <v>240</v>
-      </c>
-      <c r="D6" s="219">
-        <v>300</v>
-      </c>
-      <c r="E6" s="220">
-        <f>SUM(B6:D6)</f>
-        <v>780</v>
-      </c>
-      <c r="F6" s="278">
-        <f>I6-SUM(B6:D6)</f>
-        <v>520</v>
-      </c>
-      <c r="G6" s="247">
-        <f>AVERAGE(B6:D6)</f>
-        <v>260</v>
-      </c>
-      <c r="H6" s="222"/>
-      <c r="I6" s="223">
-        <v>1300</v>
-      </c>
-      <c r="J6" s="224"/>
-      <c r="K6" s="225" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="210"/>
-    </row>
-    <row r="7" spans="1:18" ht="21" thickBot="1">
-      <c r="A7" s="212" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="226"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="229" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="226"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="238"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="222"/>
-      <c r="R7" s="210"/>
-    </row>
-    <row r="8" spans="1:18" ht="22" thickTop="1" thickBot="1">
-      <c r="A8" s="213" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="233" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="240"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="242"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="232"/>
-      <c r="R8" s="210"/>
-    </row>
-    <row r="9" spans="1:18" ht="21" thickBot="1">
-      <c r="A9" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="233" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="243"/>
-      <c r="M9" s="243"/>
-      <c r="N9" s="243"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="210"/>
-    </row>
-    <row r="10" spans="1:18" ht="21" thickBot="1">
-      <c r="A10" s="215" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="219">
-        <v>240</v>
-      </c>
-      <c r="C10" s="219">
-        <v>240</v>
-      </c>
-      <c r="D10" s="219">
-        <v>300</v>
-      </c>
-      <c r="E10" s="220">
-        <f>SUM(B10:D10)</f>
-        <v>780</v>
-      </c>
-      <c r="F10" s="278">
-        <f>I10-SUM(B10:D10)</f>
-        <v>520</v>
-      </c>
-      <c r="G10" s="247">
-        <f>AVERAGE(B10:D10)</f>
-        <v>260</v>
-      </c>
-      <c r="H10" s="222"/>
-      <c r="I10" s="223">
-        <v>1300</v>
-      </c>
-      <c r="J10" s="224"/>
-      <c r="K10" s="248" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="244"/>
-      <c r="M10" s="245"/>
-      <c r="N10" s="245"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="247"/>
-      <c r="Q10" s="222"/>
-      <c r="R10" s="210"/>
-    </row>
-    <row r="11" spans="1:18" ht="21" thickBot="1">
-      <c r="A11" s="216" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="249"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="251" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="249"/>
-      <c r="M11" s="226"/>
-      <c r="N11" s="226"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="222"/>
-      <c r="R11" s="210"/>
-    </row>
-    <row r="12" spans="1:18" ht="22" thickTop="1" thickBot="1">
-      <c r="A12" s="217" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="255" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="252"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="210"/>
-    </row>
-    <row r="13" spans="1:18" ht="21" thickBot="1">
-      <c r="A13" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="234"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="236"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="236"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="233" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="210"/>
-    </row>
-    <row r="14" spans="1:18" ht="21" thickBot="1">
-      <c r="A14" s="211" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="219">
-        <v>240</v>
-      </c>
-      <c r="C14" s="219">
-        <v>240</v>
-      </c>
-      <c r="D14" s="219">
-        <v>300</v>
-      </c>
-      <c r="E14" s="220">
-        <f>SUM(B14:D14)</f>
-        <v>780</v>
-      </c>
-      <c r="F14" s="278">
-        <f>I14-SUM(B14:D14)</f>
-        <v>520</v>
-      </c>
-      <c r="G14" s="247">
-        <f>AVERAGE(B14:D14)</f>
-        <v>260</v>
-      </c>
-      <c r="H14" s="222"/>
-      <c r="I14" s="223">
-        <v>1300</v>
-      </c>
-      <c r="J14" s="224"/>
-      <c r="K14" s="225" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="222"/>
-      <c r="R14" s="210"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" thickBot="1">
-      <c r="A15" s="212" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="257"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="229" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="257"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="210"/>
-    </row>
-    <row r="16" spans="1:18" ht="22" thickTop="1" thickBot="1">
-      <c r="A16" s="213" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="259"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="276"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="233" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="259"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="260"/>
-      <c r="P16" s="231"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="210"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="218" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="277"/>
-      <c r="G17" s="263"/>
-      <c r="H17" s="263"/>
-      <c r="I17" s="263"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="264" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="261"/>
-      <c r="M17" s="261"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="262"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="210"/>
-    </row>
-    <row r="18" spans="1:18" ht="21" thickBot="1">
-      <c r="A18" s="211" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="219">
-        <v>240</v>
-      </c>
-      <c r="C18" s="219">
-        <v>240</v>
-      </c>
-      <c r="D18" s="219">
-        <v>300</v>
-      </c>
-      <c r="E18" s="220">
-        <f>SUM(B18:D18)</f>
-        <v>780</v>
-      </c>
-      <c r="F18" s="278">
-        <f>I18-SUM(B18:D18)</f>
-        <v>520</v>
-      </c>
-      <c r="G18" s="247">
-        <f>AVERAGE(B18:D18)</f>
-        <v>260</v>
-      </c>
-      <c r="H18" s="222"/>
-      <c r="I18" s="223">
-        <v>1300</v>
-      </c>
-      <c r="J18" s="224"/>
-      <c r="K18" s="225" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="265"/>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="222"/>
-      <c r="R18" s="210"/>
-    </row>
-    <row r="19" spans="1:18" ht="21" thickBot="1">
-      <c r="A19" s="212" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="276"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="229" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="226"/>
-      <c r="M19" s="226"/>
-      <c r="N19" s="226"/>
-      <c r="O19" s="246"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="210"/>
-    </row>
-    <row r="20" spans="1:18" ht="22" thickTop="1" thickBot="1">
-      <c r="A20" s="213" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="267"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="253"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="276"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="233" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="267"/>
-      <c r="M20" s="253"/>
-      <c r="N20" s="253"/>
-      <c r="O20" s="254"/>
-      <c r="P20" s="232"/>
-      <c r="Q20" s="232"/>
-      <c r="R20" s="210"/>
-    </row>
-    <row r="21" spans="1:18" ht="21" thickBot="1">
-      <c r="A21" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="234"/>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="236"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="233" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="210"/>
-    </row>
-    <row r="22" spans="1:18" ht="21" thickBot="1">
-      <c r="A22" s="211" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="219">
-        <v>240</v>
-      </c>
-      <c r="C22" s="219">
-        <v>240</v>
-      </c>
-      <c r="D22" s="219">
-        <v>300</v>
-      </c>
-      <c r="E22" s="220">
-        <f>SUM(B22:D22)</f>
-        <v>780</v>
-      </c>
-      <c r="F22" s="278">
-        <f>I22-SUM(B22:D22)</f>
-        <v>520</v>
-      </c>
-      <c r="G22" s="247">
-        <f>AVERAGE(B22:D22)</f>
-        <v>260</v>
-      </c>
-      <c r="H22" s="222"/>
-      <c r="I22" s="223">
-        <v>1300</v>
-      </c>
-      <c r="J22" s="224"/>
-      <c r="K22" s="225" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="222"/>
-      <c r="R22" s="210"/>
-    </row>
-    <row r="23" spans="1:18" ht="21" thickBot="1">
-      <c r="A23" s="212" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="276"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="229" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="226"/>
-      <c r="M23" s="226"/>
-      <c r="N23" s="226"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="268"/>
-      <c r="Q23" s="222"/>
-      <c r="R23" s="210"/>
-    </row>
-    <row r="24" spans="1:18" ht="22" thickTop="1" thickBot="1">
-      <c r="A24" s="213" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="233" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="230"/>
-      <c r="M24" s="230"/>
-      <c r="N24" s="230"/>
-      <c r="O24" s="240"/>
-      <c r="P24" s="231"/>
-      <c r="Q24" s="232"/>
-      <c r="R24" s="210"/>
-    </row>
-    <row r="25" spans="1:18" ht="21" thickBot="1">
-      <c r="A25" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="234"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="277"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="233" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="234"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="210"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="210"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="210"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="210"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="210"/>
-      <c r="O27" s="210"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="210"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
